--- a/docs/Regenerative_Receiver_Calculations.xlsx
+++ b/docs/Regenerative_Receiver_Calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Regenerative_Radio_Receiver\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8763F18E-A222-4C99-B486-DEDC750832EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CF68BA-C15E-404D-882B-AD41926CEBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8DE5C065-F520-4388-BEF7-72D54EBBA6EC}"/>
   </bookViews>
@@ -183,7 +183,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -326,45 +326,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="7"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="7"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="7"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="8"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="7"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -702,7 +698,7 @@
   <dimension ref="C8:Z58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="X46" sqref="X46"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,12 +714,12 @@
   </cols>
   <sheetData>
     <row r="8" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="11" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="3:26" x14ac:dyDescent="0.25">
@@ -752,225 +748,156 @@
     </row>
     <row r="13" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C13" s="4"/>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6"/>
+      <c r="I13" s="5"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="14" t="s">
+      <c r="L13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="6"/>
+      <c r="Q13" s="5"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="14" t="s">
+      <c r="T13" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="6"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="5"/>
     </row>
     <row r="14" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6"/>
+      <c r="I14" s="5"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="6"/>
+      <c r="Q14" s="5"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="6"/>
+      <c r="Z14" s="5"/>
     </row>
     <row r="15" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="G15" s="5" t="s">
+      <c r="G15" t="s">
         <v>1</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15">
         <v>225</v>
       </c>
-      <c r="I15" s="6"/>
+      <c r="I15" s="5"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="5"/>
-      <c r="O15" s="5" t="s">
+      <c r="O15" t="s">
         <v>1</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P15">
         <v>225</v>
       </c>
-      <c r="Q15" s="6"/>
+      <c r="Q15" s="5"/>
       <c r="S15" s="4"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5" t="s">
+      <c r="W15" t="s">
         <v>8</v>
       </c>
-      <c r="X15" s="5">
+      <c r="X15">
         <v>225</v>
       </c>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="6"/>
+      <c r="Z15" s="5"/>
     </row>
     <row r="16" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="G16" s="5" t="s">
+      <c r="G16" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16">
         <v>5.52</v>
       </c>
-      <c r="I16" s="6"/>
+      <c r="I16" s="5"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="5"/>
-      <c r="O16" s="5" t="s">
+      <c r="O16" t="s">
         <v>20</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P16">
         <v>2.2000000000000002</v>
       </c>
-      <c r="Q16" s="6"/>
+      <c r="Q16" s="5"/>
       <c r="S16" s="4"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5" t="s">
+      <c r="W16" t="s">
         <v>20</v>
       </c>
-      <c r="X16" s="5">
+      <c r="X16">
         <v>2.2000000000000002</v>
       </c>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="6"/>
+      <c r="Z16" s="5"/>
     </row>
     <row r="17" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="I17" s="5"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="6"/>
+      <c r="Q17" s="5"/>
       <c r="S17" s="4"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5" t="s">
+      <c r="W17" t="s">
         <v>22</v>
       </c>
-      <c r="X17" s="5">
+      <c r="X17">
         <v>1.2</v>
       </c>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="6"/>
+      <c r="Z17" s="5"/>
     </row>
     <row r="18" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="15">
         <f>(1/(H16*10^3*(2*PI()*H15)^2))*10^12</f>
         <v>90.643392057915349</v>
       </c>
-      <c r="I18" s="6"/>
+      <c r="I18" s="5"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="5"/>
-      <c r="O18" s="11" t="s">
+      <c r="O18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="P18" s="22">
+      <c r="P18" s="19">
         <f>1/(2*PI()*P15*10^3*P16*10^-9)</f>
         <v>321.52513755938452</v>
       </c>
-      <c r="Q18" s="6"/>
+      <c r="Q18" s="5"/>
       <c r="S18" s="4"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5" t="s">
+      <c r="W18" t="s">
         <v>23</v>
       </c>
-      <c r="X18" s="5">
+      <c r="X18">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="6"/>
+      <c r="Z18" s="5"/>
     </row>
     <row r="19" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="10"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="10"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="9"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="9"/>
       <c r="S19" s="4"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="6"/>
+      <c r="Z19" s="5"/>
     </row>
     <row r="20" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
       <c r="S20" s="4"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="11" t="s">
+      <c r="W20" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="X20" s="25">
+      <c r="X20" s="22">
         <f>(X17*10^3+(1/(2*PI()*X15*10^3*X16*10^-9)))*X18*10^3/((X17*10^3+(1/(2*PI()*X15*10^3*X16*10^-9)))+X18*10^3)/1000</f>
         <v>1.143345077492181</v>
       </c>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="6"/>
+      <c r="Z20" s="5"/>
     </row>
     <row r="21" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="1"/>
@@ -987,52 +914,35 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="3"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="10"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="9"/>
     </row>
     <row r="22" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="4"/>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="6"/>
+      <c r="I22" s="5"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="14" t="s">
+      <c r="L22" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="6"/>
+      <c r="Q22" s="5"/>
     </row>
     <row r="23" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C23" s="4"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="6"/>
+      <c r="I23" s="5"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="24" t="s">
+      <c r="L23" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="6"/>
+      <c r="Q23" s="5"/>
       <c r="S23" s="1"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
@@ -1044,178 +954,143 @@
     </row>
     <row r="24" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C24" s="4"/>
-      <c r="D24" s="5" t="s">
+      <c r="D24" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24">
         <v>5.52</v>
       </c>
-      <c r="I24" s="6"/>
+      <c r="I24" s="5"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="5"/>
-      <c r="O24" s="5" t="s">
+      <c r="O24" t="s">
         <v>9</v>
       </c>
-      <c r="P24" s="5">
+      <c r="P24">
         <v>1.26</v>
       </c>
-      <c r="Q24" s="6"/>
+      <c r="Q24" s="5"/>
       <c r="S24" s="4"/>
-      <c r="T24" s="14" t="s">
+      <c r="T24" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="6"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="Z24" s="5"/>
     </row>
     <row r="25" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C25" s="4"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="I25" s="5"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="5"/>
-      <c r="O25" s="5" t="s">
+      <c r="O25" t="s">
         <v>2</v>
       </c>
-      <c r="P25" s="5">
+      <c r="P25">
         <v>5.25</v>
       </c>
-      <c r="Q25" s="6"/>
+      <c r="Q25" s="5"/>
       <c r="S25" s="4"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="6"/>
+      <c r="Z25" s="5"/>
     </row>
     <row r="26" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C26" s="4"/>
-      <c r="D26" s="5" t="s">
+      <c r="D26" t="s">
         <v>15</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
-      <c r="G26" s="19" t="s">
+      <c r="G26" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="11">
         <f>(1/(2*PI()*SQRT($E$24*10^-3*E26*10^-12)))/1000</f>
         <v>428.43070491886851</v>
       </c>
-      <c r="I26" s="6"/>
+      <c r="I26" s="5"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="6"/>
+      <c r="Q26" s="5"/>
       <c r="S26" s="4"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5" t="s">
+      <c r="W26" t="s">
         <v>0</v>
       </c>
-      <c r="X26" s="16">
+      <c r="X26" s="14">
         <f>P49</f>
         <v>8.2124905818147997</v>
       </c>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="6"/>
+      <c r="Z26" s="5"/>
     </row>
     <row r="27" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C27" s="4"/>
-      <c r="D27" s="13" t="s">
+      <c r="D27" t="s">
         <v>16</v>
       </c>
       <c r="E27">
         <v>400</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="G27" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="11">
         <f>(1/(2*PI()*SQRT($E$24*10^-3*E27*10^-12)))/1000</f>
         <v>107.10767622971713</v>
       </c>
-      <c r="I27" s="6"/>
+      <c r="I27" s="5"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="5"/>
-      <c r="O27" s="20" t="s">
+      <c r="O27" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="P27" s="21">
+      <c r="P27" s="18">
         <f>SQRT(P25/P24)</f>
         <v>2.0412414523193152</v>
       </c>
-      <c r="Q27" s="6"/>
+      <c r="Q27" s="5"/>
       <c r="S27" s="4"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5" t="s">
+      <c r="W27" t="s">
         <v>36</v>
       </c>
-      <c r="X27" s="5">
+      <c r="X27">
         <v>3.48</v>
       </c>
-      <c r="Y27" s="5" t="s">
+      <c r="Y27" t="s">
         <v>37</v>
       </c>
-      <c r="Z27" s="6"/>
+      <c r="Z27" s="5"/>
     </row>
     <row r="28" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="10"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="9"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="5"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="6"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="5"/>
       <c r="S28" s="4"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="6"/>
+      <c r="Z28" s="5"/>
     </row>
     <row r="29" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K29" s="4"/>
-      <c r="L29" s="5"/>
-      <c r="O29" s="11" t="s">
+      <c r="O29" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="P29" s="18">
+      <c r="P29" s="16">
         <f>P27</f>
         <v>2.0412414523193152</v>
       </c>
-      <c r="Q29" s="6"/>
+      <c r="Q29" s="5"/>
       <c r="S29" s="4"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="11" t="s">
+      <c r="W29" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="X29" s="11">
+      <c r="X29" s="10">
         <f>X27/X26</f>
         <v>0.42374477819260864</v>
       </c>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="6"/>
+      <c r="Z29" s="5"/>
     </row>
     <row r="30" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C30" s="1"/>
@@ -1225,54 +1100,35 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="3"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="10"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="9"/>
       <c r="S30" s="4"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="6"/>
+      <c r="Z30" s="5"/>
     </row>
     <row r="31" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C31" s="4"/>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="6"/>
+      <c r="I31" s="5"/>
       <c r="S31" s="4"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="13" t="s">
+      <c r="W31" t="s">
         <v>10</v>
       </c>
-      <c r="X31" s="7">
+      <c r="X31" s="6">
         <f>H35</f>
         <v>1781.2830345854127</v>
       </c>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="6"/>
+      <c r="Z31" s="5"/>
     </row>
     <row r="32" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="6"/>
+      <c r="I32" s="5"/>
       <c r="K32" s="1"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -1281,263 +1137,212 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="3"/>
       <c r="S32" s="4"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="13"/>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Z32" s="5"/>
     </row>
     <row r="33" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C33" s="4"/>
-      <c r="D33" s="5" t="s">
+      <c r="D33" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33">
         <v>225</v>
       </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="6"/>
+      <c r="I33" s="5"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="14" t="s">
+      <c r="L33" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="6"/>
+      <c r="Q33" s="5"/>
       <c r="S33" s="4"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="13" t="s">
+      <c r="W33" t="s">
         <v>39</v>
       </c>
-      <c r="X33" s="26">
+      <c r="X33" s="23">
         <f>((X29/2)^2/X31)*1000000</f>
         <v>25.200885198922776</v>
       </c>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="6"/>
+      <c r="Z33" s="5"/>
     </row>
     <row r="34" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C34" s="4"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="6"/>
+      <c r="I34" s="5"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="6"/>
+      <c r="Q34" s="5"/>
       <c r="S34" s="4"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="13" t="s">
+      <c r="W34" t="s">
         <v>40</v>
       </c>
-      <c r="X34" s="16">
+      <c r="X34" s="14">
         <f>10*LOG(X33*10^-6/10^-3)</f>
         <v>-15.985842040495806</v>
       </c>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="6"/>
+      <c r="Z34" s="5"/>
     </row>
     <row r="35" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C35" s="4"/>
-      <c r="D35" s="5" t="s">
+      <c r="D35" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35">
         <v>1.26</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="11">
         <f>2*PI()*E33*10^3*E35*10^-3</f>
         <v>1781.2830345854127</v>
       </c>
-      <c r="I35" s="6"/>
+      <c r="I35" s="5"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="5"/>
-      <c r="O35" s="5" t="s">
+      <c r="O35" t="s">
         <v>1</v>
       </c>
-      <c r="P35" s="5">
+      <c r="P35">
         <v>225</v>
       </c>
-      <c r="Q35" s="6"/>
+      <c r="Q35" s="5"/>
       <c r="S35" s="4"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="13"/>
-      <c r="X35" s="16"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="6"/>
+      <c r="X35" s="14"/>
+      <c r="Z35" s="5"/>
     </row>
     <row r="36" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C36" s="4"/>
-      <c r="D36" s="13" t="s">
+      <c r="D36" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36">
         <v>5.52</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H36" s="11">
         <f>2*PI()*E33*10^3*E36*10^-3</f>
         <v>7803.7161515170446</v>
       </c>
-      <c r="I36" s="6"/>
+      <c r="I36" s="5"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="5"/>
-      <c r="O36" s="5" t="s">
+      <c r="O36" t="s">
         <v>22</v>
       </c>
-      <c r="P36" s="5">
+      <c r="P36">
         <v>1.2</v>
       </c>
-      <c r="Q36" s="6"/>
+      <c r="Q36" s="5"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="13" t="s">
+      <c r="W36" t="s">
         <v>42</v>
       </c>
-      <c r="X36" s="16">
+      <c r="X36" s="14">
         <v>20</v>
       </c>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="6"/>
+      <c r="Z36" s="5"/>
     </row>
     <row r="37" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C37" s="4"/>
-      <c r="D37" s="13" t="s">
+      <c r="D37" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="14">
         <f>H18</f>
         <v>90.643392057915349</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="11">
         <f>1/(2*PI()*E33*10^3*E37*10^-12)</f>
         <v>7803.7161515170465</v>
       </c>
-      <c r="I37" s="6"/>
+      <c r="I37" s="5"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="5"/>
-      <c r="O37" s="5" t="s">
+      <c r="O37" t="s">
         <v>23</v>
       </c>
-      <c r="P37" s="5">
+      <c r="P37">
         <v>4.5999999999999996</v>
       </c>
-      <c r="Q37" s="6"/>
+      <c r="Q37" s="5"/>
       <c r="S37" s="4"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="13" t="s">
+      <c r="W37" t="s">
         <v>41</v>
       </c>
-      <c r="X37" s="16">
+      <c r="X37" s="14">
         <v>10</v>
       </c>
-      <c r="Y37" s="5" t="s">
+      <c r="Y37" t="s">
         <v>45</v>
       </c>
-      <c r="Z37" s="6"/>
+      <c r="Z37" s="5"/>
     </row>
     <row r="38" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="10"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="9"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="5"/>
-      <c r="O38" s="20" t="s">
+      <c r="O38" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="P38" s="21">
+      <c r="P38" s="18">
         <f>P18</f>
         <v>321.52513755938452</v>
       </c>
-      <c r="Q38" s="6"/>
+      <c r="Q38" s="5"/>
       <c r="S38" s="4"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="13"/>
-      <c r="X38" s="16"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="6"/>
+      <c r="X38" s="14"/>
+      <c r="Z38" s="5"/>
     </row>
     <row r="39" spans="3:26" x14ac:dyDescent="0.25">
       <c r="K39" s="4"/>
-      <c r="L39" s="5"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="6"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="5"/>
       <c r="S39" s="4"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="27" t="s">
+      <c r="W39" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="X39" s="25">
+      <c r="X39" s="22">
         <f>2*X36*X37</f>
         <v>400</v>
       </c>
-      <c r="Y39" s="11" t="s">
+      <c r="Y39" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="Z39" s="6"/>
+      <c r="Z39" s="5"/>
     </row>
     <row r="40" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K40" s="4"/>
-      <c r="L40" s="5"/>
-      <c r="O40" s="11" t="s">
+      <c r="O40" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P40" s="18">
+      <c r="P40" s="16">
         <f>1+(P37*10^3/(P36*10^3+P38))</f>
         <v>4.0232822885717612</v>
       </c>
-      <c r="Q40" s="6"/>
-      <c r="S40" s="8"/>
-      <c r="T40" s="9"/>
-      <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
-      <c r="W40" s="9"/>
-      <c r="X40" s="9"/>
-      <c r="Y40" s="9"/>
-      <c r="Z40" s="10"/>
+      <c r="Q40" s="5"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+      <c r="X40" s="8"/>
+      <c r="Y40" s="8"/>
+      <c r="Z40" s="9"/>
     </row>
     <row r="41" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K41" s="8"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="10"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="9"/>
     </row>
     <row r="42" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="3:26" x14ac:dyDescent="0.25">
@@ -1551,97 +1356,71 @@
     </row>
     <row r="44" spans="3:26" x14ac:dyDescent="0.25">
       <c r="K44" s="4"/>
-      <c r="L44" s="14" t="s">
+      <c r="L44" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="6"/>
+      <c r="Q44" s="5"/>
     </row>
     <row r="45" spans="3:26" x14ac:dyDescent="0.25">
       <c r="K45" s="4"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="6"/>
+      <c r="Q45" s="5"/>
     </row>
     <row r="46" spans="3:26" x14ac:dyDescent="0.25">
       <c r="K46" s="4"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5" t="s">
+      <c r="O46" t="s">
         <v>26</v>
       </c>
-      <c r="P46" s="15">
+      <c r="P46" s="13">
         <f>P29</f>
         <v>2.0412414523193152</v>
       </c>
-      <c r="Q46" s="6"/>
+      <c r="Q46" s="5"/>
     </row>
     <row r="47" spans="3:26" x14ac:dyDescent="0.25">
       <c r="K47" s="4"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5" t="s">
+      <c r="O47" t="s">
         <v>24</v>
       </c>
-      <c r="P47" s="15">
+      <c r="P47" s="13">
         <f>P40</f>
         <v>4.0232822885717612</v>
       </c>
-      <c r="Q47" s="6"/>
+      <c r="Q47" s="5"/>
     </row>
     <row r="48" spans="3:26" x14ac:dyDescent="0.25">
       <c r="K48" s="4"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="6"/>
+      <c r="Q48" s="5"/>
     </row>
     <row r="49" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K49" s="4"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="11" t="s">
+      <c r="O49" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="P49" s="25">
+      <c r="P49" s="22">
         <f>P46*P47</f>
         <v>8.2124905818147997</v>
       </c>
-      <c r="Q49" s="6"/>
+      <c r="Q49" s="5"/>
     </row>
     <row r="50" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K50" s="4"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="11" t="s">
+      <c r="O50" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="P50" s="25">
+      <c r="P50" s="22">
         <f>20*LOG(P49)</f>
         <v>18.289497690277397</v>
       </c>
-      <c r="Q50" s="6"/>
+      <c r="Q50" s="5"/>
     </row>
     <row r="51" spans="11:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K51" s="8"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="9"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="10"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="9"/>
     </row>
     <row r="57" spans="11:24" x14ac:dyDescent="0.25">
       <c r="X57" t="s">

--- a/docs/Regenerative_Receiver_Calculations.xlsx
+++ b/docs/Regenerative_Receiver_Calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Regenerative_Radio_Receiver\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CF68BA-C15E-404D-882B-AD41926CEBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F3703C-E363-425B-ACBD-DD880DDF536E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8DE5C065-F520-4388-BEF7-72D54EBBA6EC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t>k</t>
   </si>
@@ -174,6 +174,21 @@
   </si>
   <si>
     <t>5 according to maps</t>
+  </si>
+  <si>
+    <t>pf</t>
+  </si>
+  <si>
+    <t>Cant</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>mH</t>
+  </si>
+  <si>
+    <t>fres</t>
   </si>
 </sst>
 </file>
@@ -695,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B80612-27E1-4B49-85E6-4144203A1E30}">
-  <dimension ref="C8:Z58"/>
+  <dimension ref="B8:Z58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,7 +1155,7 @@
       <c r="X32" s="6"/>
       <c r="Z32" s="5"/>
     </row>
-    <row r="33" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C33" s="4"/>
       <c r="D33" t="s">
         <v>8</v>
@@ -1164,7 +1179,7 @@
       </c>
       <c r="Z33" s="5"/>
     </row>
-    <row r="34" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C34" s="4"/>
       <c r="I34" s="5"/>
       <c r="K34" s="4"/>
@@ -1179,7 +1194,7 @@
       </c>
       <c r="Z34" s="5"/>
     </row>
-    <row r="35" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C35" s="4"/>
       <c r="D35" t="s">
         <v>9</v>
@@ -1207,7 +1222,7 @@
       <c r="X35" s="14"/>
       <c r="Z35" s="5"/>
     </row>
-    <row r="36" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C36" s="4"/>
       <c r="D36" t="s">
         <v>2</v>
@@ -1240,7 +1255,7 @@
       </c>
       <c r="Z36" s="5"/>
     </row>
-    <row r="37" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
       <c r="C37" s="4"/>
       <c r="D37" t="s">
         <v>5</v>
@@ -1277,7 +1292,7 @@
       </c>
       <c r="Z37" s="5"/>
     </row>
-    <row r="38" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C38" s="7"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -1298,7 +1313,7 @@
       <c r="X38" s="14"/>
       <c r="Z38" s="5"/>
     </row>
-    <row r="39" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
       <c r="K39" s="4"/>
       <c r="O39" s="17"/>
       <c r="P39" s="18"/>
@@ -1316,7 +1331,7 @@
       </c>
       <c r="Z39" s="5"/>
     </row>
-    <row r="40" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K40" s="4"/>
       <c r="O40" s="10" t="s">
         <v>24</v>
@@ -1335,7 +1350,7 @@
       <c r="Y40" s="8"/>
       <c r="Z40" s="9"/>
     </row>
-    <row r="41" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K41" s="7"/>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
@@ -1344,8 +1359,8 @@
       <c r="P41" s="8"/>
       <c r="Q41" s="9"/>
     </row>
-    <row r="42" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
       <c r="K43" s="1"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
@@ -1354,18 +1369,36 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="3"/>
     </row>
-    <row r="44" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
       <c r="K44" s="4"/>
       <c r="L44" s="12" t="s">
         <v>30</v>
       </c>
       <c r="Q44" s="5"/>
     </row>
-    <row r="45" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45">
+        <v>270</v>
+      </c>
+      <c r="D45" t="s">
+        <v>46</v>
+      </c>
       <c r="K45" s="4"/>
       <c r="Q45" s="5"/>
     </row>
-    <row r="46" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46">
+        <v>1.26</v>
+      </c>
+      <c r="D46" t="s">
+        <v>49</v>
+      </c>
       <c r="K46" s="4"/>
       <c r="O46" t="s">
         <v>26</v>
@@ -1376,7 +1409,7 @@
       </c>
       <c r="Q46" s="5"/>
     </row>
-    <row r="47" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
       <c r="K47" s="4"/>
       <c r="O47" t="s">
         <v>24</v>
@@ -1387,7 +1420,14 @@
       </c>
       <c r="Q47" s="5"/>
     </row>
-    <row r="48" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48">
+        <f>1/(2*PI()*SQRT(C45*10^-12*C46*10^-3))</f>
+        <v>272868.23202339496</v>
+      </c>
       <c r="K48" s="4"/>
       <c r="Q48" s="5"/>
     </row>

--- a/docs/Regenerative_Receiver_Calculations.xlsx
+++ b/docs/Regenerative_Receiver_Calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Regenerative_Radio_Receiver\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F3703C-E363-425B-ACBD-DD880DDF536E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598CBDE0-A783-4771-A4F4-A73BB13FA39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8DE5C065-F520-4388-BEF7-72D54EBBA6EC}"/>
+    <workbookView xWindow="10710" yWindow="2550" windowWidth="17025" windowHeight="11295" xr2:uid="{8DE5C065-F520-4388-BEF7-72D54EBBA6EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -712,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B80612-27E1-4B49-85E6-4144203A1E30}">
   <dimension ref="B8:Z58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="I31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="W51" sqref="W51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1388,6 +1388,9 @@
       </c>
       <c r="K45" s="4"/>
       <c r="Q45" s="5"/>
+      <c r="W45">
+        <v>4.5999999999999996</v>
+      </c>
     </row>
     <row r="46" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
@@ -1408,6 +1411,10 @@
         <v>2.0412414523193152</v>
       </c>
       <c r="Q46" s="5"/>
+      <c r="W46">
+        <f>0.3215+1.2</f>
+        <v>1.5215000000000001</v>
+      </c>
     </row>
     <row r="47" spans="2:26" x14ac:dyDescent="0.25">
       <c r="K47" s="4"/>
@@ -1430,6 +1437,10 @@
       </c>
       <c r="K48" s="4"/>
       <c r="Q48" s="5"/>
+      <c r="W48">
+        <f>W45*W46/(W45+W46)</f>
+        <v>1.1433308829535245</v>
+      </c>
     </row>
     <row r="49" spans="11:24" x14ac:dyDescent="0.25">
       <c r="K49" s="4"/>
@@ -1452,6 +1463,10 @@
         <v>18.289497690277397</v>
       </c>
       <c r="Q50" s="5"/>
+      <c r="W50">
+        <f>0.976/0.117</f>
+        <v>8.3418803418803407</v>
+      </c>
     </row>
     <row r="51" spans="11:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K51" s="7"/>
